--- a/Lead crystal data.xlsx
+++ b/Lead crystal data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="30">
   <si>
     <t xml:space="preserve">Sample </t>
   </si>
@@ -55,6 +55,9 @@
     <t>3h after 6day</t>
   </si>
   <si>
+    <t>3h after 3 days at 50*C</t>
+  </si>
+  <si>
     <t>Dalton tumbler</t>
   </si>
   <si>
@@ -80,6 +83,129 @@
   </si>
   <si>
     <t>Sugar bowl plus creamer</t>
+  </si>
+  <si>
+    <t>Fill glass</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Wait 1 hour, sample </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">1hr </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>timepoint</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Wait 3 hours, sample </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">3hr </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>timepoint</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Empty glass, Refill wait 6 days, sample </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">6day </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>timepoint</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Empty glass, refill, wait 3 hours, sample</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> 3h after 6day </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>timepoint</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Empty glass, wait 3 days at 50*C, refill, wait 3 hours, sample </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>3h after 3 days at 50*C</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> timepoint</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -110,18 +236,23 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
     </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -150,6 +281,15 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -213,12 +353,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$2:$P$2</c:f>
+              <c:f>Sheet1!$M$2:$Q$2</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$3:$P$3</c:f>
+              <c:f>Sheet1!$M$3:$Q$3</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -243,12 +383,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$2:$P$2</c:f>
+              <c:f>Sheet1!$M$2:$Q$2</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$4:$P$4</c:f>
+              <c:f>Sheet1!$M$4:$Q$4</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -273,12 +413,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$2:$P$2</c:f>
+              <c:f>Sheet1!$M$2:$Q$2</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$5:$P$5</c:f>
+              <c:f>Sheet1!$M$5:$Q$5</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -303,12 +443,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$2:$P$2</c:f>
+              <c:f>Sheet1!$M$2:$Q$2</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$6:$P$6</c:f>
+              <c:f>Sheet1!$M$6:$Q$6</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -333,12 +473,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$2:$P$2</c:f>
+              <c:f>Sheet1!$M$2:$Q$2</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$7:$P$7</c:f>
+              <c:f>Sheet1!$M$7:$Q$7</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -363,12 +503,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$2:$P$2</c:f>
+              <c:f>Sheet1!$M$2:$Q$2</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$8:$P$8</c:f>
+              <c:f>Sheet1!$M$8:$Q$8</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -395,21 +535,21 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$2:$P$2</c:f>
+              <c:f>Sheet1!$M$2:$Q$2</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$9:$P$9</c:f>
+              <c:f>Sheet1!$M$9:$Q$9</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1831562266"/>
-        <c:axId val="145020037"/>
+        <c:axId val="188923379"/>
+        <c:axId val="54788720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1831562266"/>
+        <c:axId val="188923379"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -461,10 +601,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145020037"/>
+        <c:crossAx val="54788720"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145020037"/>
+        <c:axId val="54788720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000.0"/>
@@ -540,7 +680,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1831562266"/>
+        <c:crossAx val="188923379"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -621,12 +761,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$2:$P$2</c:f>
+              <c:f>Sheet1!$M$2:$Q$2</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$3:$P$3</c:f>
+              <c:f>Sheet1!$M$3:$Q$3</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -651,12 +791,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$2:$P$2</c:f>
+              <c:f>Sheet1!$M$2:$Q$2</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$4:$P$4</c:f>
+              <c:f>Sheet1!$M$4:$Q$4</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -681,12 +821,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$2:$P$2</c:f>
+              <c:f>Sheet1!$M$2:$Q$2</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$5:$P$5</c:f>
+              <c:f>Sheet1!$M$5:$Q$5</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -711,12 +851,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$2:$P$2</c:f>
+              <c:f>Sheet1!$M$2:$Q$2</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$6:$P$6</c:f>
+              <c:f>Sheet1!$M$6:$Q$6</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -741,12 +881,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$2:$P$2</c:f>
+              <c:f>Sheet1!$M$2:$Q$2</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$7:$P$7</c:f>
+              <c:f>Sheet1!$M$7:$Q$7</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -771,12 +911,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$2:$P$2</c:f>
+              <c:f>Sheet1!$M$2:$Q$2</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$8:$P$8</c:f>
+              <c:f>Sheet1!$M$8:$Q$8</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -803,21 +943,21 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$2:$P$2</c:f>
+              <c:f>Sheet1!$M$2:$Q$2</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$9:$P$9</c:f>
+              <c:f>Sheet1!$M$9:$Q$9</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="247958917"/>
-        <c:axId val="1103769836"/>
+        <c:axId val="1657997746"/>
+        <c:axId val="2005300667"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="247958917"/>
+        <c:axId val="1657997746"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -869,10 +1009,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1103769836"/>
+        <c:crossAx val="2005300667"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1103769836"/>
+        <c:axId val="2005300667"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1500.0"/>
@@ -948,7 +1088,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247958917"/>
+        <c:crossAx val="1657997746"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1029,12 +1169,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$13:$P$13</c:f>
+              <c:f>Sheet1!$M$13:$Q$13</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$14:$P$14</c:f>
+              <c:f>Sheet1!$M$14:$Q$14</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1059,12 +1199,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$13:$P$13</c:f>
+              <c:f>Sheet1!$M$13:$Q$13</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$15:$P$15</c:f>
+              <c:f>Sheet1!$M$15:$Q$15</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1089,12 +1229,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$13:$P$13</c:f>
+              <c:f>Sheet1!$M$13:$Q$13</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$16:$P$16</c:f>
+              <c:f>Sheet1!$M$16:$Q$16</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1119,12 +1259,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$13:$P$13</c:f>
+              <c:f>Sheet1!$M$13:$Q$13</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$17:$P$17</c:f>
+              <c:f>Sheet1!$M$17:$Q$17</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1149,12 +1289,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$13:$P$13</c:f>
+              <c:f>Sheet1!$M$13:$Q$13</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$18:$P$18</c:f>
+              <c:f>Sheet1!$M$18:$Q$18</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1179,12 +1319,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$13:$P$13</c:f>
+              <c:f>Sheet1!$M$13:$Q$13</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$19:$P$19</c:f>
+              <c:f>Sheet1!$M$19:$Q$19</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1211,21 +1351,21 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$13:$P$13</c:f>
+              <c:f>Sheet1!$M$13:$Q$13</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$20:$P$20</c:f>
+              <c:f>Sheet1!$M$20:$Q$20</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1767908732"/>
-        <c:axId val="1185037572"/>
+        <c:axId val="1394256672"/>
+        <c:axId val="1122077483"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1767908732"/>
+        <c:axId val="1394256672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,10 +1417,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1185037572"/>
+        <c:crossAx val="1122077483"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1185037572"/>
+        <c:axId val="1122077483"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000.0"/>
@@ -1356,7 +1496,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1767908732"/>
+        <c:crossAx val="1394256672"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1391,7 +1531,7 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6800850" cy="4200525"/>
+    <xdr:ext cx="7648575" cy="4200525"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
@@ -1416,7 +1556,7 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6800850" cy="4200525"/>
+    <xdr:ext cx="7648575" cy="4200525"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
@@ -1441,7 +1581,7 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6800850" cy="3533775"/>
+    <xdr:ext cx="7648575" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 3" title="Chart"/>
@@ -1727,7 +1867,9 @@
       <c r="P2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="7"/>
+      <c r="Q2" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
@@ -1740,7 +1882,7 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>10</v>
@@ -1752,11 +1894,11 @@
         <v>3.0</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E28" si="1">D3*C3</f>
+        <f t="shared" ref="E3:E33" si="1">D3*C3</f>
         <v>252.6</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F28" si="2">E3-30</f>
+        <f t="shared" ref="F3:F33" si="2">E3-30</f>
         <v>222.6</v>
       </c>
       <c r="G3" s="9">
@@ -1766,15 +1908,15 @@
         <v>261.0</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I28" si="3">G3/H3</f>
+        <f t="shared" ref="I3:I33" si="3">G3/H3</f>
         <v>1.068965517</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J28" si="4">F3*I3</f>
+        <f t="shared" ref="J3:J33" si="4">F3*I3</f>
         <v>237.9517241</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M3" s="1">
         <f>F3</f>
@@ -1792,10 +1934,14 @@
         <f>F6</f>
         <v>46.7</v>
       </c>
+      <c r="Q3" s="1">
+        <f>F7</f>
+        <v>57.3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>11</v>
@@ -1829,28 +1975,32 @@
         <v>432.9310345</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="1">
-        <f>F7</f>
+        <f>F8</f>
         <v>13.4</v>
       </c>
       <c r="N4" s="1">
-        <f>F8</f>
+        <f>F9</f>
         <v>69</v>
       </c>
       <c r="O4" s="1">
-        <f>F9</f>
+        <f>F10</f>
         <v>194</v>
       </c>
       <c r="P4" s="1">
-        <f>F10</f>
+        <f>F11</f>
         <v>22.3</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>F12</f>
+        <v>19.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>12</v>
@@ -1884,31 +2034,31 @@
         <v>445.7586207</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M5" s="1">
-        <f>F11</f>
+        <f>F13</f>
         <v>-23.22</v>
       </c>
       <c r="N5" s="1">
-        <f>F12</f>
+        <f>F14</f>
         <v>-13.5</v>
       </c>
       <c r="O5" s="1">
-        <f>F13</f>
+        <f>F15</f>
         <v>-23.21</v>
       </c>
       <c r="P5" s="1">
-        <f>F14</f>
+        <f>F16</f>
         <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="9">
         <v>76.7</v>
@@ -1939,96 +2089,104 @@
         <v>49.92068966</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N6" s="1">
-        <f>F15</f>
+        <f>F17</f>
         <v>1160</v>
       </c>
       <c r="O6" s="1">
-        <f>F16</f>
+        <f>F18</f>
         <v>4190</v>
       </c>
       <c r="P6" s="1">
-        <f>F17</f>
+        <f>F19</f>
         <v>486</v>
+      </c>
+      <c r="Q6" s="1">
+        <f>F20</f>
+        <v>169.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>10</v>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C7" s="9">
-        <v>21.7</v>
+        <v>87.3</v>
       </c>
       <c r="D7" s="9">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="1"/>
-        <v>43.4</v>
+        <v>87.3</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="2"/>
-        <v>13.4</v>
+        <v>57.3</v>
       </c>
       <c r="G7" s="9">
-        <v>155.0</v>
+        <v>279.0</v>
       </c>
       <c r="H7" s="9">
-        <v>167.0</v>
+        <v>261.0</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="3"/>
-        <v>0.9281437126</v>
+        <v>1.068965517</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="4"/>
-        <v>12.43712575</v>
+        <v>61.25172414</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M7" s="1">
-        <f>F18</f>
+        <f>F21</f>
         <v>219</v>
       </c>
       <c r="N7" s="1">
-        <f>F19</f>
+        <f>F22</f>
         <v>552</v>
       </c>
       <c r="O7" s="1">
-        <f>F20</f>
+        <f>F23</f>
         <v>891</v>
       </c>
       <c r="P7" s="1">
-        <f>F21</f>
+        <f>F24</f>
         <v>175</v>
+      </c>
+      <c r="Q7" s="1">
+        <f>F25</f>
+        <v>18.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="9">
-        <v>49.5</v>
+        <v>21.7</v>
       </c>
       <c r="D8" s="9">
         <v>2.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="1"/>
-        <v>99</v>
+        <v>43.4</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>13.4</v>
       </c>
       <c r="G8" s="9">
         <v>155.0</v>
@@ -2042,48 +2200,52 @@
       </c>
       <c r="J8" s="1">
         <f t="shared" si="4"/>
-        <v>64.04191617</v>
+        <v>12.43712575</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M8" s="1">
-        <f>F22</f>
+        <f>F26</f>
         <v>137.4</v>
       </c>
       <c r="N8" s="1">
-        <f>F23</f>
+        <f>F27</f>
         <v>247.2</v>
       </c>
       <c r="O8" s="1">
-        <f>F24</f>
+        <f>F28</f>
         <v>702</v>
       </c>
       <c r="P8" s="1">
-        <f>F25</f>
+        <f>F29</f>
         <v>90</v>
+      </c>
+      <c r="Q8" s="1">
+        <f>F30</f>
+        <v>19.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="9">
-        <v>112.0</v>
+        <v>49.5</v>
       </c>
       <c r="D9" s="9">
         <v>2.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="1"/>
-        <v>224</v>
+        <v>99</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="2"/>
-        <v>194</v>
+        <v>69</v>
       </c>
       <c r="G9" s="9">
         <v>155.0</v>
@@ -2097,44 +2259,44 @@
       </c>
       <c r="J9" s="1">
         <f t="shared" si="4"/>
-        <v>180.0598802</v>
+        <v>64.04191617</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N9" s="1">
-        <f>F26</f>
+        <f>F31</f>
         <v>444</v>
       </c>
       <c r="O9" s="1">
-        <f>F27</f>
+        <f>F32</f>
         <v>1251</v>
       </c>
       <c r="P9" s="1">
-        <f>F28</f>
+        <f>F33</f>
         <v>153.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C10" s="9">
-        <v>52.3</v>
+        <v>112.0</v>
       </c>
       <c r="D10" s="9">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="1"/>
-        <v>52.3</v>
+        <v>224</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="2"/>
-        <v>22.3</v>
+        <v>194</v>
       </c>
       <c r="G10" s="9">
         <v>155.0</v>
@@ -2148,7 +2310,7 @@
       </c>
       <c r="J10" s="1">
         <f t="shared" si="4"/>
-        <v>20.69760479</v>
+        <v>180.0598802</v>
       </c>
       <c r="L10" s="3"/>
     </row>
@@ -2157,35 +2319,35 @@
         <v>16</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C11" s="9">
-        <v>6.78</v>
+        <v>52.3</v>
       </c>
       <c r="D11" s="9">
         <v>1.0</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>6.78</v>
+        <v>52.3</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="2"/>
-        <v>-23.22</v>
+        <v>22.3</v>
       </c>
       <c r="G11" s="9">
-        <v>245.0</v>
+        <v>155.0</v>
       </c>
       <c r="H11" s="9">
-        <v>240.0</v>
+        <v>167.0</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="3"/>
-        <v>1.020833333</v>
+        <v>0.9281437126</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="4"/>
-        <v>-23.70375</v>
+        <v>20.69760479</v>
       </c>
       <c r="L11" s="3"/>
     </row>
@@ -2193,59 +2355,59 @@
       <c r="A12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>11</v>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C12" s="9">
-        <v>16.5</v>
+        <v>49.4</v>
       </c>
       <c r="D12" s="9">
         <v>1.0</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="1"/>
-        <v>16.5</v>
+        <v>49.4</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="2"/>
-        <v>-13.5</v>
+        <v>19.4</v>
       </c>
       <c r="G12" s="9">
-        <v>245.0</v>
+        <v>155.0</v>
       </c>
       <c r="H12" s="9">
-        <v>240.0</v>
+        <v>167.0</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="3"/>
-        <v>1.020833333</v>
+        <v>0.9281437126</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="4"/>
-        <v>-13.78125</v>
+        <v>18.00598802</v>
       </c>
       <c r="L12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="9">
-        <v>6.79</v>
+        <v>6.78</v>
       </c>
       <c r="D13" s="9">
         <v>1.0</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>6.79</v>
+        <v>6.78</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="2"/>
-        <v>-23.21</v>
+        <v>-23.22</v>
       </c>
       <c r="G13" s="9">
         <v>245.0</v>
@@ -2259,7 +2421,7 @@
       </c>
       <c r="J13" s="1">
         <f t="shared" si="4"/>
-        <v>-23.69354167</v>
+        <v>-23.70375</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="9" t="s">
@@ -2274,27 +2436,30 @@
       <c r="P13" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="Q13" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C14" s="9">
-        <v>77.0</v>
+        <v>16.5</v>
       </c>
       <c r="D14" s="9">
         <v>1.0</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>16.5</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>-13.5</v>
       </c>
       <c r="G14" s="9">
         <v>245.0</v>
@@ -2308,10 +2473,10 @@
       </c>
       <c r="J14" s="1">
         <f t="shared" si="4"/>
-        <v>47.97916667</v>
+        <v>-13.78125</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M14" s="1">
         <f>J3</f>
@@ -2329,137 +2494,145 @@
         <f>J6</f>
         <v>49.92068966</v>
       </c>
+      <c r="Q14" s="1">
+        <f>J7</f>
+        <v>61.25172414</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="9">
-        <v>595.0</v>
+        <v>6.79</v>
       </c>
       <c r="D15" s="9">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>1190</v>
+        <v>6.79</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="2"/>
-        <v>1160</v>
+        <v>-23.21</v>
       </c>
       <c r="G15" s="9">
-        <v>36.0</v>
+        <v>245.0</v>
       </c>
       <c r="H15" s="9">
-        <v>83.0</v>
+        <v>240.0</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="3"/>
-        <v>0.4337349398</v>
+        <v>1.020833333</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="4"/>
-        <v>503.1325301</v>
+        <v>-23.69354167</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M15" s="1">
-        <f>J7</f>
+        <f>J8</f>
         <v>12.43712575</v>
       </c>
       <c r="N15" s="1">
-        <f>J8</f>
+        <f>J9</f>
         <v>64.04191617</v>
       </c>
       <c r="O15" s="1">
-        <f>J9</f>
+        <f>J10</f>
         <v>180.0598802</v>
       </c>
       <c r="P15" s="1">
-        <f>J10</f>
+        <f>J11</f>
         <v>20.69760479</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>J12</f>
+        <v>18.00598802</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="C16" s="9">
-        <v>422.0</v>
+        <v>77.0</v>
       </c>
       <c r="D16" s="9">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>4220</v>
+        <v>77</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="2"/>
-        <v>4190</v>
+        <v>47</v>
       </c>
       <c r="G16" s="9">
-        <v>36.0</v>
+        <v>245.0</v>
       </c>
       <c r="H16" s="9">
-        <v>83.0</v>
+        <v>240.0</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" si="3"/>
-        <v>0.4337349398</v>
+        <v>1.020833333</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="4"/>
-        <v>1817.349398</v>
+        <v>47.97916667</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M16" s="1">
-        <f>J11</f>
+        <f>J13</f>
         <v>-23.70375</v>
       </c>
       <c r="N16" s="1">
-        <f>J12</f>
+        <f>J14</f>
         <v>-13.78125</v>
       </c>
       <c r="O16" s="1">
-        <f>J13</f>
+        <f>J15</f>
         <v>-23.69354167</v>
       </c>
       <c r="P16" s="1">
-        <f>J14</f>
+        <f>J16</f>
         <v>47.97916667</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C17" s="9">
-        <v>172.0</v>
+        <v>595.0</v>
       </c>
       <c r="D17" s="9">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="1"/>
-        <v>516</v>
+        <v>1190</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="2"/>
-        <v>486</v>
+        <v>1160</v>
       </c>
       <c r="G17" s="9">
         <v>36.0</v>
@@ -2473,214 +2646,223 @@
       </c>
       <c r="J17" s="1">
         <f t="shared" si="4"/>
+        <v>503.1325301</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="1">
+        <f>J17</f>
+        <v>503.1325301</v>
+      </c>
+      <c r="O17" s="1">
+        <f>J18</f>
+        <v>1817.349398</v>
+      </c>
+      <c r="P17" s="1">
+        <f>J19</f>
         <v>210.7951807</v>
       </c>
-      <c r="L17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="N17" s="1">
-        <f>J15</f>
-        <v>503.1325301</v>
-      </c>
-      <c r="O17" s="1">
-        <f>J16</f>
-        <v>1817.349398</v>
-      </c>
-      <c r="P17" s="1">
-        <f>J17</f>
-        <v>210.7951807</v>
+      <c r="Q17" s="1">
+        <f>J20</f>
+        <v>73.38795181</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C18" s="9">
-        <v>83.0</v>
+        <v>422.0</v>
       </c>
       <c r="D18" s="9">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="1"/>
-        <v>249</v>
+        <v>4220</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="2"/>
-        <v>219</v>
+        <v>4190</v>
       </c>
       <c r="G18" s="9">
-        <v>156.0</v>
-      </c>
-      <c r="H18" s="11">
-        <f t="shared" ref="H18:H21" si="5">94+113</f>
-        <v>207</v>
+        <v>36.0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>83.0</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" si="3"/>
-        <v>0.7536231884</v>
+        <v>0.4337349398</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="4"/>
+        <v>1817.349398</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="1">
+        <f>J21</f>
         <v>165.0434783</v>
       </c>
-      <c r="L18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="1">
-        <f>J18</f>
-        <v>165.0434783</v>
-      </c>
       <c r="N18" s="1">
-        <f>J19</f>
+        <f>J22</f>
         <v>416</v>
       </c>
       <c r="O18" s="1">
-        <f>J20</f>
+        <f>J23</f>
         <v>671.4782609</v>
       </c>
       <c r="P18" s="1">
-        <f>J21</f>
+        <f>J24</f>
         <v>131.884058</v>
+      </c>
+      <c r="Q18" s="1">
+        <f>J25</f>
+        <v>13.71594203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C19" s="9">
-        <v>194.0</v>
+        <v>172.0</v>
       </c>
       <c r="D19" s="9">
         <v>3.0</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="1"/>
-        <v>582</v>
+        <v>516</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="2"/>
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="G19" s="9">
-        <v>156.0</v>
-      </c>
-      <c r="H19" s="11">
-        <f t="shared" si="5"/>
-        <v>207</v>
+        <v>36.0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>83.0</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" si="3"/>
-        <v>0.7536231884</v>
+        <v>0.4337349398</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="4"/>
-        <v>416</v>
+        <v>210.7951807</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M19" s="1">
-        <f>J22</f>
+        <f>J26</f>
         <v>132.3787375</v>
       </c>
       <c r="N19" s="1">
-        <f>J23</f>
+        <f>J27</f>
         <v>238.166113</v>
       </c>
       <c r="O19" s="1">
-        <f>J24</f>
+        <f>J28</f>
         <v>676.345515</v>
       </c>
       <c r="P19" s="1">
-        <f>J25</f>
+        <f>J29</f>
         <v>86.71096346</v>
+      </c>
+      <c r="Q19" s="1">
+        <f>J30</f>
+        <v>18.49833887</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C20" s="9">
-        <v>307.0</v>
+        <v>99.6</v>
       </c>
       <c r="D20" s="9">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="1"/>
-        <v>921</v>
+        <v>199.2</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="2"/>
-        <v>891</v>
+        <v>169.2</v>
       </c>
       <c r="G20" s="9">
-        <v>156.0</v>
-      </c>
-      <c r="H20" s="11">
-        <f t="shared" si="5"/>
-        <v>207</v>
+        <v>36.0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>83.0</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="3"/>
-        <v>0.7536231884</v>
+        <v>0.4337349398</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="4"/>
-        <v>671.4782609</v>
+        <v>73.38795181</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N20" s="1">
-        <f>J26</f>
+        <f>J31</f>
         <v>364.7142857</v>
       </c>
       <c r="O20" s="1">
-        <f>J27</f>
+        <f>J32</f>
         <v>1027.607143</v>
       </c>
       <c r="P20" s="1">
-        <f>J28</f>
+        <f>J33</f>
         <v>126.1714286</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C21" s="9">
-        <v>205.0</v>
+        <v>83.0</v>
       </c>
       <c r="D21" s="9">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="1"/>
-        <v>205</v>
+        <v>249</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="2"/>
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="G21" s="9">
         <v>156.0</v>
       </c>
       <c r="H21" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H21:H25" si="5">94+113</f>
         <v>207</v>
       </c>
       <c r="I21" s="2">
@@ -2689,155 +2871,159 @@
       </c>
       <c r="J21" s="1">
         <f t="shared" si="4"/>
-        <v>131.884058</v>
+        <v>165.0434783</v>
       </c>
       <c r="L21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" s="9">
-        <v>55.8</v>
+        <v>194.0</v>
       </c>
       <c r="D22" s="9">
         <v>3.0</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>167.4</v>
+        <v>582</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="2"/>
-        <v>137.4</v>
+        <v>552</v>
       </c>
       <c r="G22" s="9">
-        <v>290.0</v>
-      </c>
-      <c r="H22" s="9">
-        <v>301.0</v>
+        <v>156.0</v>
+      </c>
+      <c r="H22" s="11">
+        <f t="shared" si="5"/>
+        <v>207</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" si="3"/>
-        <v>0.9634551495</v>
+        <v>0.7536231884</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="4"/>
-        <v>132.3787375</v>
+        <v>416</v>
       </c>
       <c r="L22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" s="9">
-        <v>92.4</v>
+        <v>307.0</v>
       </c>
       <c r="D23" s="9">
         <v>3.0</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="1"/>
-        <v>277.2</v>
+        <v>921</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="2"/>
-        <v>247.2</v>
+        <v>891</v>
       </c>
       <c r="G23" s="9">
-        <v>290.0</v>
-      </c>
-      <c r="H23" s="9">
-        <v>301.0</v>
+        <v>156.0</v>
+      </c>
+      <c r="H23" s="11">
+        <f t="shared" si="5"/>
+        <v>207</v>
       </c>
       <c r="I23" s="2">
         <f t="shared" si="3"/>
-        <v>0.9634551495</v>
+        <v>0.7536231884</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="4"/>
-        <v>238.166113</v>
+        <v>671.4782609</v>
       </c>
       <c r="L23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C24" s="9">
-        <v>244.0</v>
+        <v>205.0</v>
       </c>
       <c r="D24" s="9">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="1"/>
-        <v>732</v>
+        <v>205</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="2"/>
-        <v>702</v>
+        <v>175</v>
       </c>
       <c r="G24" s="9">
-        <v>290.0</v>
-      </c>
-      <c r="H24" s="9">
-        <v>301.0</v>
+        <v>156.0</v>
+      </c>
+      <c r="H24" s="11">
+        <f t="shared" si="5"/>
+        <v>207</v>
       </c>
       <c r="I24" s="2">
         <f t="shared" si="3"/>
-        <v>0.9634551495</v>
+        <v>0.7536231884</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="4"/>
-        <v>676.345515</v>
+        <v>131.884058</v>
       </c>
       <c r="L24" s="3"/>
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C25" s="9">
-        <v>120.0</v>
+        <v>48.2</v>
       </c>
       <c r="D25" s="9">
         <v>1.0</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>48.2</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>18.2</v>
       </c>
       <c r="G25" s="9">
-        <v>290.0</v>
-      </c>
-      <c r="H25" s="9">
-        <v>301.0</v>
+        <v>156.0</v>
+      </c>
+      <c r="H25" s="11">
+        <f t="shared" si="5"/>
+        <v>207</v>
       </c>
       <c r="I25" s="2">
         <f t="shared" si="3"/>
-        <v>0.9634551495</v>
+        <v>0.7536231884</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="4"/>
-        <v>86.71096346</v>
+        <v>13.71594203</v>
       </c>
       <c r="L25" s="3"/>
     </row>
@@ -2846,35 +3032,35 @@
         <v>21</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" s="9">
-        <v>158.0</v>
+        <v>55.8</v>
       </c>
       <c r="D26" s="9">
         <v>3.0</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="1"/>
-        <v>474</v>
+        <v>167.4</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="2"/>
-        <v>444</v>
+        <v>137.4</v>
       </c>
       <c r="G26" s="9">
-        <v>23.0</v>
+        <v>290.0</v>
       </c>
       <c r="H26" s="9">
-        <v>28.0</v>
+        <v>301.0</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="3"/>
-        <v>0.8214285714</v>
+        <v>0.9634551495</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="4"/>
-        <v>364.7142857</v>
+        <v>132.3787375</v>
       </c>
       <c r="L26" s="3"/>
     </row>
@@ -2883,35 +3069,35 @@
         <v>21</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" s="9">
-        <v>427.0</v>
+        <v>92.4</v>
       </c>
       <c r="D27" s="9">
         <v>3.0</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="1"/>
-        <v>1281</v>
+        <v>277.2</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="2"/>
-        <v>1251</v>
+        <v>247.2</v>
       </c>
       <c r="G27" s="9">
-        <v>23.0</v>
+        <v>290.0</v>
       </c>
       <c r="H27" s="9">
-        <v>28.0</v>
+        <v>301.0</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="3"/>
-        <v>0.8214285714</v>
+        <v>0.9634551495</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="4"/>
-        <v>1027.607143</v>
+        <v>238.166113</v>
       </c>
       <c r="L27" s="3"/>
     </row>
@@ -2920,66 +3106,221 @@
         <v>21</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C28" s="9">
-        <v>61.2</v>
+        <v>244.0</v>
       </c>
       <c r="D28" s="9">
         <v>3.0</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="1"/>
-        <v>183.6</v>
+        <v>732</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="2"/>
-        <v>153.6</v>
+        <v>702</v>
       </c>
       <c r="G28" s="9">
-        <v>23.0</v>
+        <v>290.0</v>
       </c>
       <c r="H28" s="9">
-        <v>28.0</v>
+        <v>301.0</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" si="3"/>
-        <v>0.8214285714</v>
+        <v>0.9634551495</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="4"/>
+        <v>676.345515</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="9">
+        <v>120.0</v>
+      </c>
+      <c r="D29" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="G29" s="9">
+        <v>290.0</v>
+      </c>
+      <c r="H29" s="9">
+        <v>301.0</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="3"/>
+        <v>0.9634551495</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="4"/>
+        <v>86.71096346</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="9">
+        <v>49.2</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="1"/>
+        <v>49.2</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="2"/>
+        <v>19.2</v>
+      </c>
+      <c r="G30" s="9">
+        <v>290.0</v>
+      </c>
+      <c r="H30" s="9">
+        <v>301.0</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="3"/>
+        <v>0.9634551495</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="4"/>
+        <v>18.49833887</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="9">
+        <v>158.0</v>
+      </c>
+      <c r="D31" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="1"/>
+        <v>474</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="2"/>
+        <v>444</v>
+      </c>
+      <c r="G31" s="9">
+        <v>23.0</v>
+      </c>
+      <c r="H31" s="9">
+        <v>28.0</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="3"/>
+        <v>0.8214285714</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="4"/>
+        <v>364.7142857</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="9">
+        <v>427.0</v>
+      </c>
+      <c r="D32" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="1"/>
+        <v>1281</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="2"/>
+        <v>1251</v>
+      </c>
+      <c r="G32" s="9">
+        <v>23.0</v>
+      </c>
+      <c r="H32" s="9">
+        <v>28.0</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="3"/>
+        <v>0.8214285714</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="4"/>
+        <v>1027.607143</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="9">
+        <v>61.2</v>
+      </c>
+      <c r="D33" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="1"/>
+        <v>183.6</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="2"/>
+        <v>153.6</v>
+      </c>
+      <c r="G33" s="9">
+        <v>23.0</v>
+      </c>
+      <c r="H33" s="9">
+        <v>28.0</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="3"/>
+        <v>0.8214285714</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="4"/>
         <v>126.1714286</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29">
-      <c r="E29" s="1"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="1"/>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30">
-      <c r="E30" s="1"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="1"/>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31">
-      <c r="E31" s="1"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="1"/>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32">
-      <c r="E32" s="1"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="1"/>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33">
-      <c r="E33" s="1"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="1"/>
       <c r="L33" s="3"/>
     </row>
     <row r="34">
@@ -3307,10 +3648,44 @@
       <c r="L87" s="3"/>
     </row>
     <row r="88">
-      <c r="E88" s="1"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="1"/>
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="14"/>
       <c r="L88" s="3"/>
+      <c r="M88" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O88" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P88" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q88" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R88" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S88" s="7"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="7"/>
+      <c r="V88" s="7"/>
+      <c r="W88" s="7"/>
+      <c r="X88" s="7"/>
+      <c r="Y88" s="7"/>
+      <c r="Z88" s="7"/>
     </row>
     <row r="89">
       <c r="E89" s="1"/>
